--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/29_Elazığ_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/29_Elazığ_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{661FE017-4019-4E29-8C7C-396470E0ACE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3188BD80-2C24-4BB9-B0FE-9E4A241C9B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{B3CB733F-859C-4A64-AC88-2592AF9C2F94}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{EB8AF07E-99CD-4373-85C6-1AEDF4B44638}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{21899E24-3808-4582-A08B-3DC33597F3D7}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{606DEF0A-1752-4AF1-B194-46CA08DAA99E}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{F7FF105E-F454-403B-9F28-E76AAC285A49}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{3CEE99CF-74AF-4C25-9268-6FA59CB390AE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{892C2C8E-EB85-494A-AA91-CAEAD2B4765E}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{E274B965-FC2D-48D8-88A3-E254E568B015}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{AFFFAC7A-845C-45A9-AB7C-C08CA2042B18}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{771E020B-89B5-4D6B-BE96-827AE1173A3B}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{162E783B-0686-4206-9500-655C84E7B23B}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{905B2F6D-E594-4939-B6D1-71CCE5FFB23B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{5F35D2B0-37EA-40FA-B1BC-9B09ACBEB919}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{4220AC51-7079-48A2-8787-D4CFC53B4E5F}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{782AF8FD-710A-4A43-AE6D-29E7BBC98209}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{9D1E4CB0-6555-4420-A2B1-895AD87CE574}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF32E2FF-F3C3-464F-9C37-62D4B17FE994}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A0DB7D-ADBA-4678-9500-CD7E27EFCD97}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2438,7 +2438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B270C054-CFD6-460F-90CD-E7C79700E8AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104831D5-B262-425D-A601-D28EC1E7FEB7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3707,7 +3707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43DA07D-5789-447A-9D99-853F5B8CCFB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF718AFF-E22F-4DD2-9A58-C5F35525C25A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4980,7 +4980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD4FC1E-10F1-4A6C-8711-ECDDD0F072C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF02BE9-7E14-4A8C-89D8-15CA789F6BA1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6245,7 +6245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7CEEE8-62A7-4B0C-AFE4-26EDC02D3708}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9B9132-E5CD-4FD0-8794-E437AC42D78C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7498,7 +7498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0070E9-A148-4472-9AB5-8CABBE6F12AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A099174D-4D0B-45FD-95C2-47D6A03214B9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
